--- a/mercury/src/test/resources/testdata/PooledTubesTest.xlsx
+++ b/mercury/src/test/resources/testdata/PooledTubesTest.xlsx
@@ -228,9 +228,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -258,7 +264,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -266,6 +272,9 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -273,6 +282,9 @@
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -572,7 +584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -706,6 +718,9 @@
       <c r="O2" t="s">
         <v>23</v>
       </c>
+      <c r="P2">
+        <v>0.6</v>
+      </c>
       <c r="Q2">
         <v>2</v>
       </c>
@@ -755,9 +770,6 @@
       </c>
       <c r="O3" t="s">
         <v>39</v>
-      </c>
-      <c r="P3">
-        <v>0.6</v>
       </c>
       <c r="R3">
         <v>2</v>

--- a/mercury/src/test/resources/testdata/PooledTubesTest.xlsx
+++ b/mercury/src/test/resources/testdata/PooledTubesTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="7140" windowWidth="21580" windowHeight="9520"/>
+    <workbookView xWindow="500" yWindow="7140" windowWidth="31520" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Tube barcode</t>
   </si>
@@ -145,13 +145,31 @@
   </si>
   <si>
     <t>SM-46IRUT2</t>
+  </si>
+  <si>
+    <t>Data Analysis Type</t>
+  </si>
+  <si>
+    <t>HybridSelection.Resequencing</t>
+  </si>
+  <si>
+    <t>Data Aggregator</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>UMIs Present</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +208,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD0806"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -252,15 +280,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -592,38 +621,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="46.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -656,13 +690,13 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -674,106 +708,133 @@
       <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="S1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>0.6</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>2</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="2">
         <v>4</v>
       </c>
+      <c r="S2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:21">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>2</v>
       </c>
+      <c r="S3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="S5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mercury/src/test/resources/testdata/PooledTubesTest.xlsx
+++ b/mercury/src/test/resources/testdata/PooledTubesTest.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Tube barcode</t>
   </si>
@@ -45,12 +45,6 @@
     <t>CAT</t>
   </si>
   <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Conditions</t>
-  </si>
-  <si>
     <t>Collaborator sample ID</t>
   </si>
   <si>
@@ -75,12 +69,6 @@
     <t>NewtonCheh_NatPepMDC_12genes3regions_Sep2011</t>
   </si>
   <si>
-    <t>DEV-7501</t>
-  </si>
-  <si>
-    <t>DEV-7538</t>
-  </si>
-  <si>
     <t>COLLAB-JT04121</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
   </si>
   <si>
     <t>Illumina_P5-Piwan_P7-Bidih</t>
-  </si>
-  <si>
-    <t>DEV-7539</t>
   </si>
   <si>
     <t>COLLAB-JT04122</t>
@@ -280,7 +265,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -289,9 +274,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -613,7 +595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,11 +603,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -636,24 +616,22 @@
     <col min="5" max="5" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.83203125" style="2"/>
+    <col min="8" max="8" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +662,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -694,147 +672,129 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>2</v>
-      </c>
-      <c r="R2" s="2">
-        <v>4</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>44</v>
-      </c>
+    <row r="4" spans="1:19">
+      <c r="Q4" s="5"/>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="2">
-        <v>2</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="S5" s="5"/>
+    <row r="5" spans="1:19">
+      <c r="Q5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mercury/src/test/resources/testdata/PooledTubesTest.xlsx
+++ b/mercury/src/test/resources/testdata/PooledTubesTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="7140" windowWidth="31520" windowHeight="10620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Tube barcode</t>
   </si>
@@ -78,76 +78,82 @@
     <t>PT-JT1</t>
   </si>
   <si>
+    <t>broadinstitute.org:bsp.dev.sample:JT1</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Fragment Size</t>
+  </si>
+  <si>
+    <t>Read Length</t>
+  </si>
+  <si>
+    <t>SM-46IRUT1</t>
+  </si>
+  <si>
+    <t>SM-JT12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>JT041431</t>
+  </si>
+  <si>
+    <t>SM-JT23</t>
+  </si>
+  <si>
+    <t>Illumina_P5-Piwan_P7-Bidih</t>
+  </si>
+  <si>
+    <t>COLLAB-JT04122</t>
+  </si>
+  <si>
+    <t>COLLAB-P-JT04122</t>
+  </si>
+  <si>
+    <t>PT-JT2</t>
+  </si>
+  <si>
+    <t>broadinstitute.org:bsp.dev.sample:JT2</t>
+  </si>
+  <si>
+    <t>SM-46IRUT2</t>
+  </si>
+  <si>
+    <t>Data Analysis Type</t>
+  </si>
+  <si>
+    <t>HybridSelection.Resequencing</t>
+  </si>
+  <si>
+    <t>Data Aggregator</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>UMIs Present</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Aggregation Data Type</t>
+  </si>
+  <si>
+    <t>Exome</t>
+  </si>
+  <si>
+    <t>Jon_Test_3a</t>
+  </si>
+  <si>
+    <t>Jon_Test_4b</t>
+  </si>
+  <si>
     <t>Homo Sapiens</t>
-  </si>
-  <si>
-    <t>broadinstitute.org:bsp.dev.sample:JT1</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Fragment Size</t>
-  </si>
-  <si>
-    <t>Read Length</t>
-  </si>
-  <si>
-    <t>SM-46IRUT1</t>
-  </si>
-  <si>
-    <t>SM-JT12</t>
-  </si>
-  <si>
-    <t>Jon Test 3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>JT041431</t>
-  </si>
-  <si>
-    <t>Jon Test 4b</t>
-  </si>
-  <si>
-    <t>SM-JT23</t>
-  </si>
-  <si>
-    <t>Illumina_P5-Piwan_P7-Bidih</t>
-  </si>
-  <si>
-    <t>COLLAB-JT04122</t>
-  </si>
-  <si>
-    <t>COLLAB-P-JT04122</t>
-  </si>
-  <si>
-    <t>PT-JT2</t>
-  </si>
-  <si>
-    <t>broadinstitute.org:bsp.dev.sample:JT2</t>
-  </si>
-  <si>
-    <t>SM-46IRUT2</t>
-  </si>
-  <si>
-    <t>Data Analysis Type</t>
-  </si>
-  <si>
-    <t>HybridSelection.Resequencing</t>
-  </si>
-  <si>
-    <t>Data Aggregator</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>UMIs Present</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -603,9 +609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -628,10 +636,11 @@
     <col min="17" max="17" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="2"/>
+    <col min="20" max="20" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
+    <row r="1" spans="1:20" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,36 +681,39 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -719,13 +731,13 @@
         <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="N2" s="2">
         <v>0.6</v>
@@ -737,63 +749,66 @@
         <v>4</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P3" s="2">
         <v>2</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="Q5" s="5"/>
     </row>
   </sheetData>
